--- a/Golf/GolfNote.xlsx
+++ b/Golf/GolfNote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\01_Repo\01_doc\Golf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA95A2-B07D-408A-A943-9D346F12AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FA23E-89F3-41F2-96D0-A93426BDEBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{9BB74EAB-F631-4C20-A74C-71CD84B75D76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9BB74EAB-F631-4C20-A74C-71CD84B75D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,21 +71,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1번만 실행해 보았다. 확실히 효과가 있다. 손등, 어깨힘 빼고, 등지고, 손등 유지한채 로테이션, 머리 축 고정, 그립 등에 신경쓰면서 연습했더니 좋아졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1번만 실행해 보았다. 확실히 효과가 있다. 손등, 어깨힘 빼고, 등지고, 손등 유지한채 로테이션, 머리 축 고정, 그립 등에 신경쓰면서 연습했더니 좋아졌다.
+다운 스윙 시 오른쪽 팔꿈치 펼쳐 어디까지? 클럽이 수평이 될때까지 등지면서. 그리고 골반회전 로테이션. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>* 당장 비거리가 늘어나기를 기대하기보다 꾸준한 연습으로 원리를 이해하고 폼을 완성시킨다.
 * 다른 건 볼 것도 없다. 이 것 하나로 기본을 완성시킨다.
-* 어느 정도 올라오면 다른 자료를 연구한다.</t>
+* 어느 정도 올라오면 다른 자료를 연구한다.
+* 기본에 충실한 레슨. 설명에 원리가 담겨 있는 레슨. 위주로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +496,7 @@
   <dimension ref="A3:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -510,7 +512,7 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -528,10 +530,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -545,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
